--- a/biology/Botanique/Liste_des_parcs_d'Helsinki/Liste_des_parcs_d'Helsinki.xlsx
+++ b/biology/Botanique/Liste_des_parcs_d'Helsinki/Liste_des_parcs_d'Helsinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_d%27Helsinki</t>
+          <t>Liste_des_parcs_d'Helsinki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article donne une liste de parcs d'Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article donne une liste de parcs d'Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_d%27Helsinki</t>
+          <t>Liste_des_parcs_d'Helsinki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Service national cartographique de Finlande, au début de 2015, Helsinki comptait 213,92 kilomètres carrés, soient 21 392 hectares de parcs[2].
-Selon la municipalité d'Helsinki, la ville comptait 1 898 hectares de parcs et 4 734 hectares de forêts en 2014[3], ce qui signifie qu'un tiers environ d'Helsinki est recouvert de divers espaces verts[4].
-Les plus anciens parcs de la ville remontent au XIXe siècle et de nouveaux parcs ouvrent chaque année[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Service national cartographique de Finlande, au début de 2015, Helsinki comptait 213,92 kilomètres carrés, soient 21 392 hectares de parcs.
+Selon la municipalité d'Helsinki, la ville comptait 1 898 hectares de parcs et 4 734 hectares de forêts en 2014, ce qui signifie qu'un tiers environ d'Helsinki est recouvert de divers espaces verts.
+Les plus anciens parcs de la ville remontent au XIXe siècle et de nouveaux parcs ouvrent chaque année.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_d%27Helsinki</t>
+          <t>Liste_des_parcs_d'Helsinki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste des parcs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
